--- a/Fase2/Evidencias Proyecto/Evidencias de sistema/Base de datos/Diccionario de datos.xlsx
+++ b/Fase2/Evidencias Proyecto/Evidencias de sistema/Base de datos/Diccionario de datos.xlsx
@@ -3,7 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Hoja 1" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Base de datos pensada o idea" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Base de datos Final" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -11,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="231">
   <si>
     <t>Comidas</t>
   </si>
@@ -320,13 +321,397 @@
   </si>
   <si>
     <t>Tiempo y hora del proceso</t>
+  </si>
+  <si>
+    <t>ingrediente_id</t>
+  </si>
+  <si>
+    <t>cadena</t>
+  </si>
+  <si>
+    <t>variable</t>
+  </si>
+  <si>
+    <t>Nombre normalizado del ingrediente (Ej: "aceite de soya").</t>
+  </si>
+  <si>
+    <t>Es el identificador único.</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>celiaco</t>
+  </si>
+  <si>
+    <t>booleano</t>
+  </si>
+  <si>
+    <t>Indica si es apto para celíacos.</t>
+  </si>
+  <si>
+    <t>true si es apto.</t>
+  </si>
+  <si>
+    <t>contiene_lactosa</t>
+  </si>
+  <si>
+    <t>Indica si contiene lactosa.</t>
+  </si>
+  <si>
+    <t>true si contiene.</t>
+  </si>
+  <si>
+    <t>descripcion</t>
+  </si>
+  <si>
+    <t>hasta 255</t>
+  </si>
+  <si>
+    <t>Descripción del ingrediente.</t>
+  </si>
+  <si>
+    <t>Puede estar vacío.</t>
+  </si>
+  <si>
+    <t>vegano</t>
+  </si>
+  <si>
+    <t>Indica si es apto para dieta vegana.</t>
+  </si>
+  <si>
+    <t>vegetariano</t>
+  </si>
+  <si>
+    <t>Indica si es apto para dieta vegetariana.</t>
+  </si>
+  <si>
+    <t>analisis_logs</t>
+  </si>
+  <si>
+    <t>analysis_id</t>
+  </si>
+  <si>
+    <t>ID único del análisis (UUID).</t>
+  </si>
+  <si>
+    <t>uid</t>
+  </si>
+  <si>
+    <t>ID del usuario que realizó el análisis.</t>
+  </si>
+  <si>
+    <t>Relación con usuarios.</t>
+  </si>
+  <si>
+    <t>fecha_analisis</t>
+  </si>
+  <si>
+    <t>número</t>
+  </si>
+  <si>
+    <t>Timestamp del análisis (ms).</t>
+  </si>
+  <si>
+    <t>Para ordenar y calcular antigüedad.</t>
+  </si>
+  <si>
+    <t>fecha_legible</t>
+  </si>
+  <si>
+    <t>Fecha y hora en formato legible (Ej: "18/11/2025 19:42").</t>
+  </si>
+  <si>
+    <t>Versión de lectura fácil.</t>
+  </si>
+  <si>
+    <t>ingredientes_detectados</t>
+  </si>
+  <si>
+    <t>array</t>
+  </si>
+  <si>
+    <t>Lista de ingredientes tal como fueron detectados.</t>
+  </si>
+  <si>
+    <t>Resultado del OCR/entrada original.</t>
+  </si>
+  <si>
+    <t>analisis_detallado</t>
+  </si>
+  <si>
+    <t>Detalle de la evaluación de cada ingrediente.</t>
+  </si>
+  <si>
+    <t>Incluye estado (apto, no_apto, desconocido).</t>
+  </si>
+  <si>
+    <t>resumen</t>
+  </si>
+  <si>
+    <t>mapa</t>
+  </si>
+  <si>
+    <t>Conteo de aptos, no aptos, desconocidos y porcentaje de aptitud.</t>
+  </si>
+  <si>
+    <t>compatibilidad_perfil</t>
+  </si>
+  <si>
+    <t>Lista de advertencias de compatibilidad con el perfil del usuario.</t>
+  </si>
+  <si>
+    <t>Ej: " Contiene Gluten".</t>
+  </si>
+  <si>
+    <t>nombre_producto</t>
+  </si>
+  <si>
+    <t>Nombre del producto escaneado.</t>
+  </si>
+  <si>
+    <t>Puede ser "Producto Escaneado" por defecto.</t>
+  </si>
+  <si>
+    <t>dispositivo</t>
+  </si>
+  <si>
+    <t>Dispositivo desde donde se realizó el análisis.</t>
+  </si>
+  <si>
+    <t>Ej: "Android".</t>
+  </si>
+  <si>
+    <t>Ingredientes_logs</t>
+  </si>
+  <si>
+    <t>log_id</t>
+  </si>
+  <si>
+    <t>ID único del registro del cambio.</t>
+  </si>
+  <si>
+    <t>Nombre normalizado del ingrediente modificado.</t>
+  </si>
+  <si>
+    <t>Relación con ingredientes.</t>
+  </si>
+  <si>
+    <t>uid_admin</t>
+  </si>
+  <si>
+    <t>ID del administrador que realizó la modificación.</t>
+  </si>
+  <si>
+    <t>accion</t>
+  </si>
+  <si>
+    <t>Tipo de acción realizada (Ej: "update", "create").</t>
+  </si>
+  <si>
+    <t>before</t>
+  </si>
+  <si>
+    <t>Estado del ingrediente antes de la modificación.</t>
+  </si>
+  <si>
+    <t>Se registra el estado anterior.</t>
+  </si>
+  <si>
+    <t>after</t>
+  </si>
+  <si>
+    <t>Estado del ingrediente después de la modificación.</t>
+  </si>
+  <si>
+    <t>Se registra el estado nuevo.</t>
+  </si>
+  <si>
+    <t>Timestamp del registro (ms).</t>
+  </si>
+  <si>
+    <t>Momento exacto de la acción.</t>
+  </si>
+  <si>
+    <t>usuarios</t>
+  </si>
+  <si>
+    <t>hasta 100</t>
+  </si>
+  <si>
+    <t>Nombre del usuario.</t>
+  </si>
+  <si>
+    <t>apellido</t>
+  </si>
+  <si>
+    <t>Apellido del usuario.</t>
+  </si>
+  <si>
+    <t>Correo electrónico del usuario.</t>
+  </si>
+  <si>
+    <t>pais</t>
+  </si>
+  <si>
+    <t>hasta 50</t>
+  </si>
+  <si>
+    <t>País de residencia del usuario.</t>
+  </si>
+  <si>
+    <t>Ej: "Chile".</t>
+  </si>
+  <si>
+    <t>Edad del usuario.</t>
+  </si>
+  <si>
+    <t>Se almacena como cadena.</t>
+  </si>
+  <si>
+    <t>genero</t>
+  </si>
+  <si>
+    <t>Género del usuario.</t>
+  </si>
+  <si>
+    <t>Ej: "Hombre".</t>
+  </si>
+  <si>
+    <t>alergias</t>
+  </si>
+  <si>
+    <t>Lista de alergias del usuario.</t>
+  </si>
+  <si>
+    <t>Ej: "Gluten, Lactosa".</t>
+  </si>
+  <si>
+    <t>tipo_alimentacion</t>
+  </si>
+  <si>
+    <t>Dieta principal del usuario.</t>
+  </si>
+  <si>
+    <t>Ej: "Vegana".</t>
+  </si>
+  <si>
+    <t>perfil_completado</t>
+  </si>
+  <si>
+    <t>Indica si el usuario ha llenado su perfil.</t>
+  </si>
+  <si>
+    <t>rol</t>
+  </si>
+  <si>
+    <t>Rol del usuario en el sistema.</t>
+  </si>
+  <si>
+    <t>Ej: "usuario" o "admin".</t>
+  </si>
+  <si>
+    <t>analisis</t>
+  </si>
+  <si>
+    <t>Relación con la colección usuarios.</t>
+  </si>
+  <si>
+    <t>Fecha y hora en formato legible (Ej: "21/11/2025 19:55").</t>
+  </si>
+  <si>
+    <t>producto</t>
+  </si>
+  <si>
+    <t>Nombre del producto escaneado (original).</t>
+  </si>
+  <si>
+    <t>Puede ser editado manualmente.</t>
+  </si>
+  <si>
+    <t>Nombre del producto escaneado (actual).</t>
+  </si>
+  <si>
+    <t>El valor que se muestra al usuario.</t>
+  </si>
+  <si>
+    <t>Sub-documento de cada ingrediente con estado y razón.</t>
+  </si>
+  <si>
+    <t>Contiene aptos, no_ptos, desconocidos, porcentaje_aptitud, total_ingredientes.</t>
+  </si>
+  <si>
+    <t>Ej: "❌ Contiene sal".</t>
+  </si>
+  <si>
+    <t>alergenos_detectados</t>
+  </si>
+  <si>
+    <t>Lista de alérgenos que se encontraron en los ingredientes.</t>
+  </si>
+  <si>
+    <t>Vacío si no se detectó ninguno.</t>
+  </si>
+  <si>
+    <t>total_alergenos</t>
+  </si>
+  <si>
+    <t>Conteo de alérgenos detectados.</t>
+  </si>
+  <si>
+    <t>Número de elementos en alergenos_detectados.</t>
+  </si>
+  <si>
+    <t>calidad_ocr</t>
+  </si>
+  <si>
+    <t>Porcentaje de calidad del reconocimiento óptico de caracteres.</t>
+  </si>
+  <si>
+    <t>De 0 a 100.</t>
+  </si>
+  <si>
+    <t>texto_ocr_original</t>
+  </si>
+  <si>
+    <t>El bloque de texto completo que fue analizado por el OCR.</t>
+  </si>
+  <si>
+    <t>Para referencia y depuración.</t>
+  </si>
+  <si>
+    <t>estado_guardado</t>
+  </si>
+  <si>
+    <t>Estado de guardado del documento (Ej: "completo", "pendiente").</t>
+  </si>
+  <si>
+    <t>Para el manejo del estado del documento.</t>
+  </si>
+  <si>
+    <t>tipo_analisis</t>
+  </si>
+  <si>
+    <t>Tipo de análisis realizado (Ej: "ocr_ingredientes", "manual").</t>
+  </si>
+  <si>
+    <t>Para diferenciar la fuente.</t>
+  </si>
+  <si>
+    <t>version_app</t>
+  </si>
+  <si>
+    <t>Versión de la aplicación que realizó el análisis.</t>
+  </si>
+  <si>
+    <t>Para seguimiento de errores.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+  <fonts count="13">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -348,6 +733,44 @@
       <sz val="11.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
+      <color rgb="FF1B1C1D"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.0"/>
+      <color rgb="FF1B1C1D"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
+      <color rgb="FF444746"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <color rgb="FF1B1C1D"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <color rgb="FF1B1C1D"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <color rgb="FF444746"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <color rgb="FF1F1F1F"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="4">
@@ -420,7 +843,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="17">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -441,6 +864,33 @@
     <xf borderId="1" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
+    <xf borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -450,6 +900,10 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -1751,4 +2205,1164 @@
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="2">
+      <c r="B2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3">
+      <c r="B3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11">
+      <c r="B11" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="E12" s="11">
+        <v>36.0</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="E13" s="11">
+        <v>28.0</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="E14" s="11">
+        <v>13.0</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="E15" s="11">
+        <v>16.0</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23">
+      <c r="B23" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="E24" s="11">
+        <v>20.0</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="E26" s="11">
+        <v>28.0</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="E27" s="11">
+        <v>6.0</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="E30" s="11">
+        <v>13.0</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="3"/>
+    </row>
+    <row r="32">
+      <c r="B32" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="G33" s="11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="G34" s="11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="G35" s="11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="B36" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="G36" s="11" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="B37" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="E37" s="11">
+        <v>3.0</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="G37" s="11" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="B38" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="E38" s="11">
+        <v>20.0</v>
+      </c>
+      <c r="F38" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="G38" s="11" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="B39" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="F39" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="G39" s="11" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="B40" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="E40" s="11">
+        <v>20.0</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="G40" s="11" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="B41" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="D41" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="F41" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="G41" s="11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="B42" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="D42" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="E42" s="11">
+        <v>10.0</v>
+      </c>
+      <c r="F42" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="G42" s="11" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="B43" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="3"/>
+    </row>
+    <row r="44">
+      <c r="B44" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="B45" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="D45" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="E45" s="15">
+        <v>36.0</v>
+      </c>
+      <c r="F45" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="G45" s="15" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="B46" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="D46" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="E46" s="15">
+        <v>28.0</v>
+      </c>
+      <c r="F46" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="G46" s="15" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="B47" s="16"/>
+      <c r="C47" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="D47" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="E47" s="15">
+        <v>13.0</v>
+      </c>
+      <c r="F47" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="G47" s="15" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="B48" s="16"/>
+      <c r="C48" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="D48" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="E48" s="15">
+        <v>16.0</v>
+      </c>
+      <c r="F48" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="G48" s="15" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="B49" s="16"/>
+      <c r="C49" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="D49" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="E49" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="F49" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="G49" s="15" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="B50" s="16"/>
+      <c r="C50" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="D50" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="E50" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="F50" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="G50" s="15" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="B51" s="16"/>
+      <c r="C51" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="D51" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="E51" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="F51" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="G51" s="15" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="B52" s="16"/>
+      <c r="C52" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="D52" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="E52" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="F52" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="G52" s="14" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="B53" s="16"/>
+      <c r="C53" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="D53" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="E53" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="F53" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="G53" s="15" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="B54" s="16"/>
+      <c r="C54" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="D54" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="E54" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="F54" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="G54" s="15" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="B55" s="16"/>
+      <c r="C55" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="D55" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="E55" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="F55" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="G55" s="15" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="B56" s="16"/>
+      <c r="C56" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="D56" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="E56" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="F56" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="G56" s="15" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="B57" s="16"/>
+      <c r="C57" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="D57" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="E57" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="F57" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="G57" s="15" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="B58" s="16"/>
+      <c r="C58" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="D58" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="E58" s="15">
+        <v>3.0</v>
+      </c>
+      <c r="F58" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="G58" s="15" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="B59" s="16"/>
+      <c r="C59" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="D59" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="E59" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="F59" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="G59" s="15" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="B60" s="16"/>
+      <c r="C60" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="D60" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="E60" s="15">
+        <v>10.0</v>
+      </c>
+      <c r="F60" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="G60" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="B61" s="16"/>
+      <c r="C61" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="D61" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="E61" s="15">
+        <v>20.0</v>
+      </c>
+      <c r="F61" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="G61" s="15" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="B62" s="16"/>
+      <c r="C62" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="D62" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="E62" s="15">
+        <v>10.0</v>
+      </c>
+      <c r="F62" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="G62" s="15" t="s">
+        <v>230</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="B43:G43"/>
+  </mergeCells>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>